--- a/nr-test-ml-datatypes/ig/all-profiles.xlsx
+++ b/nr-test-ml-datatypes/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2274" uniqueCount="400">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T08:38:31+00:00</t>
+    <t>2025-08-11T09:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1254,7 +1254,11 @@
     <t>mos-identifiant.date</t>
   </si>
   <si>
-    <t>Chaine de caractère de la date</t>
+    <t>Chaine de caractère de la date (Format YY-MM-DD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-date-format:Doit respecter le format YY-MM-DD {$this.matches('^[0-9]{2}-(0[1-9]|1[0-2])-([0-2][0-9]|3[01])$')}
+</t>
   </si>
   <si>
     <t>mos-identifiant.value</t>
@@ -8581,7 +8585,7 @@
         <v>75</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>75</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64">
@@ -8589,10 +8593,10 @@
         <v>387</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8618,10 +8622,10 @@
         <v>83</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -8672,7 +8676,7 @@
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>76</v>

--- a/nr-test-ml-datatypes/ig/all-profiles.xlsx
+++ b/nr-test-ml-datatypes/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T09:04:25+00:00</t>
+    <t>2025-08-11T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1254,7 +1254,7 @@
     <t>mos-identifiant.date</t>
   </si>
   <si>
-    <t>Chaine de caractère de la date (Format YY-MM-DD)</t>
+    <t>Date de mise en place de l'identifiant (Format YY-MM-DD)</t>
   </si>
   <si>
     <t xml:space="preserve">inv-date-format:Doit respecter le format YY-MM-DD {$this.matches('^[0-9]{2}-(0[1-9]|1[0-2])-([0-2][0-9]|3[01])$')}

--- a/nr-test-ml-datatypes/ig/all-profiles.xlsx
+++ b/nr-test-ml-datatypes/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T09:07:42+00:00</t>
+    <t>2025-08-19T08:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1227,10 +1227,10 @@
     <t>http://hl7.org/fhir/ValueSet/link-type|4.0.1</t>
   </si>
   <si>
-    <t>mos-identifiant</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/mos-identifiant</t>
+    <t>mosIdentifiant</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/mosIdentifiant</t>
   </si>
   <si>
     <t>Identifiant</t>
@@ -1251,7 +1251,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>mos-identifiant.date</t>
+    <t>mosIdentifiant.date</t>
   </si>
   <si>
     <t>Date de mise en place de l'identifiant (Format YY-MM-DD)</t>
@@ -1261,7 +1261,7 @@
 </t>
   </si>
   <si>
-    <t>mos-identifiant.value</t>
+    <t>mosIdentifiant.value</t>
   </si>
   <si>
     <t>Valeur de l'identifiant</t>
@@ -1916,7 +1916,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.7890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="12.25" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="33.83984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
